--- a/genshin-map-tracker/data/markers.xlsx
+++ b/genshin-map-tracker/data/markers.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="anemoculus" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="geoculus" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -46,6 +47,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,8 +107,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -129,727 +135,727 @@
   </sheetPr>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2291</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1401</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>1849</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>1248</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>1786</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>1272</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>1793</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>1310</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>1728</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>1193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1704</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>1335</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>1730</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1605</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>1366</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>1690</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>1444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>1559</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>1421</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>1561</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>1449</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>1623</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>1494</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>1675</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>1515</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>1637</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>1533</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>1709</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>1581</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>1642</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>1610</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>1784</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>1695</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>1881</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>1745</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>1823</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>1809</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>2112</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>1910</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>1793</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>1974</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>1894</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>2050</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>1595</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>1960</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>1561</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>2020</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>1642</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>1740</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>1552</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>1529</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>1524</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>1468</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>1490</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>1549</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>1435</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>1543</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>1367</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>1505</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>1288</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>1571</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>1248</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>1624</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>1362</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>1627</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>1379</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>1866</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>1352</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>1897</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>1239</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>1386</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>1218</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>1466</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>1151</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>1415</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>1259</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>1888</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>1238</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>1845</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>1229</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>1808</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>1196</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>1902</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>1208</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>1871</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>1196</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>1828</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>1114</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>1887</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>1115</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>1795</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>1037</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>2031</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>1032</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>1971</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>978</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>2008</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>881</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>2016</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>944</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>1940</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>958</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>1899</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>939</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>1911</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>904</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>1919</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>891</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>1808</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>838</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>1839</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>824</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>1858</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>1174</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>1765</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>1229</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>1747</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>1265</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>1709</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>1226</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>1670</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>1051</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>1739</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>1007</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>1676</v>
       </c>
     </row>
@@ -862,4 +868,1461 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D130"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B132" activeCellId="0" sqref="B132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1389</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1251</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1156</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1125</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1138</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1128</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1057</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1073</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>995</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>987</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1071</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>953</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>911</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>904</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>899</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1454</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1288</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>931</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>884</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>865</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>834</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>924</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>746</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>847</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>804</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>797</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>703</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>714</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>728</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>598</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>664</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>734</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>762</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>797</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>860</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>794</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>713</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>684</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>675</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>644</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>594</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>601</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>596</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>687</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>724</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>913</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>861</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>841</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>743</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>721</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>681</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>747</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>774</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>559</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>587</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>493</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>473</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>587</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>544</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>505</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>655</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>855</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>796</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>854</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>773</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>776</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>627</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>341</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>766</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>755</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>681</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>647</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>616</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>605</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>639</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>551</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>497</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>459</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>571</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>551</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>504</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>454</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/genshin-map-tracker/data/markers.xlsx
+++ b/genshin-map-tracker/data/markers.xlsx
@@ -2,14 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="anemoculus" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="geoculus" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="mon_shrine" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="li_shrine" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="tele" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -139,7 +142,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -877,8 +880,1465 @@
   </sheetPr>
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B132" activeCellId="0" sqref="B132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1389</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1251</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1156</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1125</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1138</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1128</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1057</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1073</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>995</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>987</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1071</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>953</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>911</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>904</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>899</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1454</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1288</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>931</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>884</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>865</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>834</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>924</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>746</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>847</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>804</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>797</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>703</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>714</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>728</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>598</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>664</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>734</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>762</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>797</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>860</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>794</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>713</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>684</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>675</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>644</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>594</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>601</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>596</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>687</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>724</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>913</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>861</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>841</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>743</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>721</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>681</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>747</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>774</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>559</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>587</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>493</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>473</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>587</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>544</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>505</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>655</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>855</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>796</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>854</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>773</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>776</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>627</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>341</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>766</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>755</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>681</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>647</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>616</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>605</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>639</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>551</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>497</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>459</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>571</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>551</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>504</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>454</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -902,10 +2362,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1389</v>
+        <v>1613</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>791</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,10 +2373,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1232</v>
+        <v>1847</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>829</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,10 +2384,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1251</v>
+        <v>1523</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>898</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,10 +2395,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1231</v>
+        <v>1622</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>923</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,10 +2406,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1187</v>
+        <v>1758</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>877</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,10 +2417,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1156</v>
+        <v>1664</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>785</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,10 +2428,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1125</v>
+        <v>1339</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>880</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,10 +2439,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1150</v>
+        <v>1104</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>961</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,10 +2450,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1010</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,10 +2461,158 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1128</v>
+        <v>1274</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1080</v>
+        <v>1936</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1353</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>491</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>764</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>987</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1352</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,10 +2620,169 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1078</v>
+        <v>328</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1047</v>
+        <v>1123</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1821</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1823</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1636</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1568</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1762</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1722</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1444</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1447</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1704</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,10 +2790,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1089</v>
+        <v>1387</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1003</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,10 +2801,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1057</v>
+        <v>1238</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>995</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,10 +2812,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1049</v>
+        <v>1208</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>954</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,10 +2823,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1073</v>
+        <v>1282</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>864</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,10 +2834,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>995</v>
+        <v>965</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>922</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,10 +2845,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>987</v>
+        <v>1064</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>868</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,10 +2856,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1092</v>
+        <v>1003</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>616</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,10 +2867,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1071</v>
+        <v>856</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>727</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,10 +2878,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1039</v>
+        <v>887</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>566</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,10 +2889,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>953</v>
+        <v>1133</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>713</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,10 +2900,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>761</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,10 +2911,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>624</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,10 +2922,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>899</v>
+        <v>757</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>530</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,10 +2933,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1454</v>
+        <v>786</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>550</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,10 +2944,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1510</v>
+        <v>607</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>487</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,10 +2955,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1390</v>
+        <v>627</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>437</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,10 +2966,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1288</v>
+        <v>1095</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>536</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,10 +2977,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>931</v>
+        <v>1046</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1067</v>
+        <v>928</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>884</v>
+        <v>1247</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1005</v>
+        <v>815</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,7 +2999,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1029</v>
@@ -1243,10 +3010,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1042</v>
+        <v>873</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,10 +3021,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>924</v>
+        <v>782</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>1220</v>
+        <v>718</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,10 +3032,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>810</v>
+        <v>992</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1130</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,10 +3043,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>746</v>
+        <v>1007</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>1164</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,10 +3054,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>847</v>
+        <v>881</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,10 +3065,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>804</v>
+        <v>718</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>1238</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,10 +3076,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>789</v>
+        <v>839</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1285</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,10 +3087,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>797</v>
+        <v>889</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1325</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,10 +3098,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>703</v>
+        <v>764</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>1255</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,10 +3109,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1305</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,10 +3120,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>728</v>
+        <v>617</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,10 +3131,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>640</v>
+        <v>515</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,10 +3142,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>598</v>
+        <v>480</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1371</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,10 +3153,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>664</v>
+        <v>406</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1382</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,10 +3164,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>734</v>
+        <v>619</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1440</v>
+        <v>728</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,10 +3175,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>762</v>
+        <v>462</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1425</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,10 +3186,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>797</v>
+        <v>349</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>1436</v>
+        <v>854</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,10 +3197,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>860</v>
+        <v>449</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1484</v>
+        <v>915</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,10 +3208,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>794</v>
+        <v>578</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1496</v>
+        <v>885</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,10 +3219,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>713</v>
+        <v>505</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>1488</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,10 +3230,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>684</v>
+        <v>482</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1459</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,10 +3241,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>675</v>
+        <v>398</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1503</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,10 +3252,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>644</v>
+        <v>316</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1452</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,10 +3263,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>594</v>
+        <v>317</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1470</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,10 +3274,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>601</v>
+        <v>241</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>1511</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,10 +3285,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>596</v>
+        <v>138</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>1554</v>
+        <v>952</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,10 +3296,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>687</v>
+        <v>206</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>1574</v>
+        <v>796</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,10 +3307,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>724</v>
+        <v>666</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>1552</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,769 +3318,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>913</v>
+        <v>1348</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>861</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>841</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>743</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>721</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>681</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <v>747</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>774</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>646</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>559</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <v>587</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>399</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" s="0" t="n">
-        <v>399</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <v>493</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" s="0" t="n">
-        <v>399</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" s="0" t="n">
-        <v>473</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <v>409</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" s="0" t="n">
-        <v>587</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" s="0" t="n">
-        <v>544</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" s="0" t="n">
-        <v>505</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <v>655</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" s="0" t="n">
-        <v>855</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" s="0" t="n">
-        <v>796</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" s="0" t="n">
-        <v>854</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" s="0" t="n">
-        <v>773</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" s="0" t="n">
-        <v>776</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" s="0" t="n">
-        <v>627</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" s="0" t="n">
-        <v>341</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" s="0" t="n">
-        <v>287</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" s="0" t="n">
-        <v>766</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" s="0" t="n">
-        <v>755</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" s="0" t="n">
-        <v>681</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" s="0" t="n">
-        <v>646</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" s="0" t="n">
-        <v>647</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" s="0" t="n">
-        <v>616</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" s="0" t="n">
-        <v>605</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" s="0" t="n">
-        <v>639</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" s="0" t="n">
-        <v>551</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" s="0" t="n">
-        <v>497</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" s="0" t="n">
-        <v>459</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" s="0" t="n">
-        <v>429</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" s="0" t="n">
-        <v>408</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" s="0" t="n">
-        <v>385</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" s="0" t="n">
-        <v>329</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" s="0" t="n">
-        <v>318</v>
-      </c>
-      <c r="C106" s="0" t="n">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" s="0" t="n">
-        <v>439</v>
-      </c>
-      <c r="C107" s="0" t="n">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" s="0" t="n">
-        <v>410</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" s="0" t="n">
-        <v>368</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" s="0" t="n">
-        <v>571</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" s="0" t="n">
-        <v>551</v>
-      </c>
-      <c r="C111" s="0" t="n">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" s="0" t="n">
-        <v>504</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" s="0" t="n">
-        <v>454</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" s="0" t="n">
-        <v>414</v>
-      </c>
-      <c r="C114" s="0" t="n">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" s="0" t="n">
-        <v>382</v>
-      </c>
-      <c r="C115" s="0" t="n">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" s="0" t="n">
-        <v>387</v>
-      </c>
-      <c r="C116" s="0" t="n">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" s="0" t="n">
-        <v>242</v>
-      </c>
-      <c r="C117" s="0" t="n">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" s="0" t="n">
-        <v>208</v>
-      </c>
-      <c r="C118" s="0" t="n">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" s="0" t="n">
-        <v>227</v>
-      </c>
-      <c r="C119" s="0" t="n">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" s="0" t="n">
-        <v>214</v>
-      </c>
-      <c r="C120" s="0" t="n">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" s="0" t="n">
-        <v>260</v>
-      </c>
-      <c r="C121" s="0" t="n">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" s="0" t="n">
-        <v>229</v>
-      </c>
-      <c r="C122" s="0" t="n">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" s="0" t="n">
-        <v>166</v>
-      </c>
-      <c r="C123" s="0" t="n">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" s="0" t="n">
-        <v>205</v>
-      </c>
-      <c r="C124" s="0" t="n">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
-        <v>124</v>
-      </c>
-      <c r="B125" s="0" t="n">
-        <v>188</v>
-      </c>
-      <c r="C125" s="0" t="n">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="B126" s="0" t="n">
-        <v>146</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
-        <v>126</v>
-      </c>
-      <c r="B127" s="0" t="n">
-        <v>107</v>
-      </c>
-      <c r="C127" s="0" t="n">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
-        <v>127</v>
-      </c>
-      <c r="B128" s="0" t="n">
-        <v>134</v>
-      </c>
-      <c r="C128" s="0" t="n">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="B129" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="C129" s="0" t="n">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
-        <v>129</v>
-      </c>
-      <c r="B130" s="0" t="n">
-        <v>1085</v>
-      </c>
-      <c r="C130" s="0" t="n">
-        <v>1195</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
